--- a/test_whole_al.xlsx
+++ b/test_whole_al.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
   <si>
     <t>Iterasi10</t>
   </si>
@@ -53,15 +53,6 @@
   </si>
   <si>
     <t>Query ke 8</t>
-  </si>
-  <si>
-    <t>Query ke 9</t>
-  </si>
-  <si>
-    <t>Query ke 10</t>
-  </si>
-  <si>
-    <t>Query ke 11</t>
   </si>
 </sst>
 </file>
@@ -411,13 +402,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:BB6"/>
+  <dimension ref="A2:AM6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +418,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:39">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -435,7 +426,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:39">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -484,26 +475,8 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
-      <c r="AO4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AT4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AY4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:39">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -576,170 +549,107 @@
       <c r="AM5" t="s">
         <v>4</v>
       </c>
-      <c r="AP5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>70.35928143712576</v>
+        <v>67.66467065868264</v>
       </c>
       <c r="C6">
-        <v>70.35928143712576</v>
+        <v>67.66467065868264</v>
       </c>
       <c r="D6">
-        <v>70.35928143712576</v>
+        <v>67.66467065868264</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
       </c>
       <c r="G6">
-        <v>70.35928143712576</v>
+        <v>66.76646706586826</v>
       </c>
       <c r="H6">
-        <v>70.35928143712576</v>
+        <v>66.76646706586826</v>
       </c>
       <c r="I6">
-        <v>70.35928143712576</v>
+        <v>66.76646706586826</v>
       </c>
       <c r="K6" t="s">
         <v>5</v>
       </c>
       <c r="L6">
-        <v>68.56287425149701</v>
+        <v>68.8622754491018</v>
       </c>
       <c r="M6">
-        <v>68.56287425149701</v>
+        <v>68.8622754491018</v>
       </c>
       <c r="N6">
-        <v>68.56287425149701</v>
+        <v>68.8622754491018</v>
       </c>
       <c r="P6" t="s">
         <v>5</v>
       </c>
       <c r="Q6">
-        <v>68.56287425149701</v>
+        <v>73.65269461077844</v>
       </c>
       <c r="R6">
-        <v>68.56287425149701</v>
+        <v>73.65269461077844</v>
       </c>
       <c r="S6">
-        <v>68.56287425149701</v>
+        <v>73.65269461077844</v>
       </c>
       <c r="U6" t="s">
         <v>5</v>
       </c>
       <c r="V6">
-        <v>69.76047904191617</v>
+        <v>73.05389221556887</v>
       </c>
       <c r="W6">
-        <v>69.76047904191617</v>
+        <v>73.05389221556887</v>
       </c>
       <c r="X6">
-        <v>69.76047904191617</v>
+        <v>73.05389221556887</v>
       </c>
       <c r="Z6" t="s">
         <v>5</v>
       </c>
       <c r="AA6">
-        <v>72.75449101796407</v>
+        <v>71.55688622754491</v>
       </c>
       <c r="AB6">
-        <v>72.75449101796407</v>
+        <v>71.55688622754491</v>
       </c>
       <c r="AC6">
-        <v>72.75449101796409</v>
+        <v>71.55688622754491</v>
       </c>
       <c r="AE6" t="s">
         <v>5</v>
       </c>
       <c r="AF6">
-        <v>73.65269461077844</v>
+        <v>73.05389221556887</v>
       </c>
       <c r="AG6">
-        <v>73.65269461077844</v>
+        <v>73.05389221556887</v>
       </c>
       <c r="AH6">
-        <v>73.65269461077844</v>
+        <v>73.05389221556887</v>
       </c>
       <c r="AJ6" t="s">
         <v>5</v>
       </c>
       <c r="AK6">
-        <v>71.8562874251497</v>
+        <v>73.05389221556887</v>
       </c>
       <c r="AL6">
-        <v>71.8562874251497</v>
+        <v>73.05389221556887</v>
       </c>
       <c r="AM6">
-        <v>71.85628742514969</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP6">
-        <v>71.25748502994011</v>
-      </c>
-      <c r="AQ6">
-        <v>71.25748502994011</v>
-      </c>
-      <c r="AR6">
-        <v>71.25748502994011</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU6">
-        <v>72.15568862275448</v>
-      </c>
-      <c r="AV6">
-        <v>72.15568862275448</v>
-      </c>
-      <c r="AW6">
-        <v>72.15568862275448</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ6">
-        <v>72.15568862275448</v>
-      </c>
-      <c r="BA6">
-        <v>72.15568862275448</v>
-      </c>
-      <c r="BB6">
-        <v>72.15568862275448</v>
+        <v>73.05389221556887</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
     <mergeCell ref="A2:F3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="F4:I4"/>
@@ -749,9 +659,6 @@
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AE4:AH4"/>
     <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AO4:AR4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="AY4:BB4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
